--- a/MEDIA/_ 2281_009_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281_009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281_009_2020-10-01~2020-10-20)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281_009_2020-11-01~2020-11-03)</t>
         </is>
       </c>
     </row>
@@ -419,379 +419,10 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>8781145</v>
+        <v>3708000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20201001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>頂-虎尾林森-鍾葦蓁暫收6萬+保證金5萬          </t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-60000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8841145</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>109528</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20201005</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>暫收-蘆竹鴻佰科技-林欣杰-暫收款6萬           </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-60000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8901145</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>109656</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20201007</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>暫收-花蓮東華-林弘銘 工程款$232,640       </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-232640</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9133785</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>109765</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>頂-三重三民-蔣奇勳 工程款15萬元            </t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-150000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9283785</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>109830</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-340000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9623785</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>109830</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20201009</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-180000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9803785</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>109882</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-20000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9823785</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-261480</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10085265</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>20201019</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2281  .009     </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>暫收-羅東成功 工程款分期$10000           </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10095265</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>110266</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/MEDIA/_ 2281_009_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281_009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281_009_2020-11-01~2020-11-03)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281_009_2020-12-01~2020-12-10)</t>
         </is>
       </c>
     </row>
@@ -419,10 +419,420 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>3708000</v>
+        <v>2705200</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20201201</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>暫收-新竹中山 工程款(ipad)             </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-11500</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2716700</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>112187</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20201201</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>暫收-新竹東南 工程款(POS機)             </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-64100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2780800</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>112170</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20201202</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>暫收-台南勝利 工程款$30000             </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-30000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2810800</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>112239</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20201203</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>暫收-余灼蓮-桃園大同西 工程款25萬           </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-250000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3060800</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>112291</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20201204</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>暫收-竹南龍山-張淑娟 工程款20萬            </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3260800</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>112348</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20201205</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10910月台北展NO.77-簡勤益-代尋2萬       </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3280800</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>112366</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20201207</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>暫收-中和民樂-古育瑋煥然一新 設備款50萬        </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-500000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3780800</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>112418</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20201208</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>頂-溪湖太平-楊絜涵/施佳欣 暫收款6萬          </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3840800</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>112467</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20201209</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>暫收-清水西寧 許哲原/陳素琴 工程款60萬        </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-600000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4440800</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>112537</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20201209</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>暫收-林晏竹 代尋2萬                   </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4460800</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>112537</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
